--- a/CompiladorAutomatas/src/main/java/pruebas/CasoDeEstudio_SWIFT.xlsx
+++ b/CompiladorAutomatas/src/main/java/pruebas/CasoDeEstudio_SWIFT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuevo\Desktop\CompiladorAutomatas\src\main\java\pruebas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\jpedr\Escritorio\CompiladorAutomatas\src\main\java\pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MatrizDeTransición" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>Q\E</t>
   </si>
@@ -276,13 +276,64 @@
   </si>
   <si>
     <t>Símbolo no valido</t>
+  </si>
+  <si>
+    <t>Se espera class</t>
+  </si>
+  <si>
+    <t>Se espera un ID</t>
+  </si>
+  <si>
+    <t>Se espera un {</t>
+  </si>
+  <si>
+    <t>Se espera un }</t>
+  </si>
+  <si>
+    <t>Ser espera var</t>
+  </si>
+  <si>
+    <t>Se espera :</t>
+  </si>
+  <si>
+    <t>Se espera ;</t>
+  </si>
+  <si>
+    <t>Se espera un TIPO</t>
+  </si>
+  <si>
+    <t>Se espera un ESTATUTO</t>
+  </si>
+  <si>
+    <t>Se espera (</t>
+  </si>
+  <si>
+    <t>Se espera )</t>
+  </si>
+  <si>
+    <t>Se espera un SIGNO</t>
+  </si>
+  <si>
+    <t>Se espera =</t>
+  </si>
+  <si>
+    <t>Se espera un OPERADOR ADITIVO</t>
+  </si>
+  <si>
+    <t>Se espera un OPERADOR MULTIPLICATIVO</t>
+  </si>
+  <si>
+    <t>Se espera un OPERADOR RELACIONAL</t>
+  </si>
+  <si>
+    <t>Se espera un DATO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -319,8 +370,16 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,8 +452,20 @@
         <bgColor rgb="FFFFFF81"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFF81"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -553,11 +624,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,19 +690,14 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -624,21 +705,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -648,9 +714,47 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,6 +762,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCD69FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -909,12 +1018,12 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="7.28515625" customWidth="1"/>
+    <col min="1" max="28" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -998,7 +1107,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1170,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1256,7 +1365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1342,7 +1451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1428,7 +1537,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1514,7 +1623,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1600,7 +1709,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1686,7 +1795,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1772,7 +1881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1858,7 +1967,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1944,7 +2053,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -2030,7 +2139,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -2116,7 +2225,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -2202,7 +2311,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -2288,7 +2397,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -2386,40 +2495,40 @@
   </sheetPr>
   <dimension ref="B1:E1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E45" sqref="B45:E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>100</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="35" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>101</v>
       </c>
@@ -2429,11 +2538,11 @@
       <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>102</v>
       </c>
@@ -2443,389 +2552,389 @@
       <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>103</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>104</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>105</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-    </row>
-    <row r="9" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>106</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-    </row>
-    <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>107</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>108</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>109</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-    </row>
-    <row r="13" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>110</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>111</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-    </row>
-    <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>112</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>113</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>114</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>115</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>116</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>117</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>118</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
-    </row>
-    <row r="22" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>119</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10">
         <v>120</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="20"/>
+    </row>
+    <row r="24" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10">
         <v>121</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
         <v>122</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10">
         <v>123</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5">
         <v>124</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="25" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>125</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="26" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>202</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>203</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="36"/>
-    </row>
-    <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="11">
         <v>200</v>
       </c>
       <c r="C31" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="36"/>
-    </row>
-    <row r="32" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="27"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11">
         <v>201</v>
       </c>
       <c r="C32" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-    </row>
-    <row r="33" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>204</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-    </row>
-    <row r="34" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>205</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-    </row>
-    <row r="35" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>206</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="36"/>
-      <c r="E35" s="36"/>
-    </row>
-    <row r="36" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>207</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-    </row>
-    <row r="37" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>208</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-    </row>
-    <row r="38" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>209</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+    </row>
+    <row r="39" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <v>500</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="17" t="s">
         <v>78</v>
       </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <v>501</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D40" s="18"/>
-      <c r="E40" s="36"/>
-    </row>
-    <row r="41" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="29"/>
+    </row>
+    <row r="41" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <v>502</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="18"/>
-      <c r="E41" s="36"/>
-    </row>
-    <row r="42" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="29"/>
+    </row>
+    <row r="42" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="13">
         <v>503</v>
       </c>
@@ -2833,989 +2942,1172 @@
         <v>82</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="E42" s="36"/>
-    </row>
-    <row r="43" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="29"/>
+    </row>
+    <row r="43" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <v>504</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="17" t="s">
         <v>83</v>
       </c>
       <c r="D43" s="18"/>
-      <c r="E43" s="36"/>
-    </row>
-    <row r="44" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="13">
+      <c r="E43" s="29"/>
+    </row>
+    <row r="44" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="16">
         <v>505</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="29"/>
+    </row>
+    <row r="45" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="40">
+        <v>506</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="40">
+        <v>507</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="40">
+        <v>508</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="40">
+        <v>509</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="40">
+        <v>510</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="40">
+        <v>511</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
+    </row>
+    <row r="51" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="40">
+        <v>512</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="41"/>
+      <c r="E51" s="42"/>
+    </row>
+    <row r="52" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="40">
+        <v>513</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="41"/>
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="40">
+        <v>514</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="41"/>
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="40">
+        <v>515</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="41"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="40">
+        <v>516</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55" s="41"/>
+      <c r="E55" s="42"/>
+    </row>
+    <row r="56" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="40">
+        <v>517</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="42"/>
+    </row>
+    <row r="57" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="40">
+        <v>518</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="41"/>
+      <c r="E57" s="42"/>
+    </row>
+    <row r="58" spans="2:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="40">
+        <v>519</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="43"/>
+      <c r="E58" s="42"/>
+    </row>
+    <row r="59" spans="2:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="40">
+        <v>520</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="42"/>
+    </row>
+    <row r="60" spans="2:5" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="40">
+        <v>521</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="43"/>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="40">
+        <v>522</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="43"/>
+      <c r="E61" s="42"/>
+    </row>
+    <row r="62" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="37">
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="E45:E61"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D6:E10"/>
+    <mergeCell ref="D11:E16"/>
+    <mergeCell ref="D17:E19"/>
+    <mergeCell ref="D20:E22"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="D23:E26"/>
@@ -3825,18 +4117,9 @@
     <mergeCell ref="E29:E38"/>
     <mergeCell ref="D31:D38"/>
     <mergeCell ref="E39:E44"/>
-    <mergeCell ref="D17:E19"/>
-    <mergeCell ref="D20:E22"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D6:E10"/>
-    <mergeCell ref="D11:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3849,7 +4132,7 @@
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
